--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501ED577-1492-4E68-ADD7-007FA7A4C9E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB660B-B8FF-431E-ADA3-FD867FD96C43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="228">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -942,6 +942,87 @@
   <si>
     <t>&lt;link naar TC8&gt;</t>
   </si>
+  <si>
+    <t>1. Rendezvous hotels geeft de melding: no matches found. Voor alle testruns is Swissotel Le Plaza Basel gebruikt ipv Rendezvouw Hotel.</t>
+  </si>
+  <si>
+    <t>2. Bij het tonen van de zoekresultaten lijkt de lay-out van de pagina niet correct.</t>
+  </si>
+  <si>
+    <t>Hotel wordt getoond.</t>
+  </si>
+  <si>
+    <t>3. zoekfunctie naar hotels in een plaats geeft geen resultaten</t>
+  </si>
+  <si>
+    <t>Er worden geen hotels getoond.</t>
+  </si>
+  <si>
+    <t>Melding "No matches found" wordt getoond</t>
+  </si>
+  <si>
+    <t>Het hotel wordt als suggestie weergegeven</t>
+  </si>
+  <si>
+    <t>4. Een disabled hotel in de back-end kan wel gevonden worden in de front-end.</t>
+  </si>
+  <si>
+    <t>Geen foutmelding wordt getoond, zoekresultaat verschijnt</t>
+  </si>
+  <si>
+    <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 1 persoon gezet.</t>
+  </si>
+  <si>
+    <t>Zoekresultaten worden weergegeven</t>
+  </si>
+  <si>
+    <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 1 gezet.</t>
+  </si>
+  <si>
+    <t>Kan niet uitgevoerd worden. Het is niet mogelijk om lege velden te hebben, deze worden automatisch gevuld.</t>
+  </si>
+  <si>
+    <t>6. Systeem accepteert een checkout datum die voor de checkin datum ligt</t>
+  </si>
+  <si>
+    <t>5. Systeem accepteert een ongeldige checkin datum</t>
+  </si>
+  <si>
+    <t>8. Bij een reisgezelschap van 0 volwassenen en 2 kinderen, wordt automatisch 1 volwasenne toegevoegd.</t>
+  </si>
+  <si>
+    <t>7. Bij een reisgezelschap van 0 personen, wordt dit automatisch verandert naar 1 volwassene</t>
+  </si>
+  <si>
+    <t>De functionaliteit heeft een aantal bevindingen die niet wenselijk zijn voor de deployment. Enkel het zoeken naar een hotel is getest, omdat het boeken van een hotel beperkt was door de lay-out pagina beperking van de zoekresultaten.</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Tours Backend</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Beach Holidays</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>History / culture</t>
+  </si>
+  <si>
+    <t>Alle tourtypes die aanwezig zijn in de back-end zijn terug te vinden in de front-end. Niet alle opties die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
+  </si>
+  <si>
+    <t>Niet alle opties voor tourtypes die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
+  </si>
 </sst>
 </file>
 
@@ -950,7 +1031,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1035,8 +1116,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1139,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1282,51 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1387,12 +1441,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1403,6 +1451,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1811,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1942,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14433F0F-1925-450E-AF52-5B31D2F48EE0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1989,56 +2118,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="70">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2048,10 +2177,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2061,62 +2190,62 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="64"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="66"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
@@ -2125,19 +2254,19 @@
       <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="43" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="45"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -2146,7 +2275,7 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="12"/>
@@ -2186,8 +2315,8 @@
       <c r="G26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -2203,14 +2332,14 @@
       <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="49" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -2226,14 +2355,14 @@
       <c r="E28" s="16">
         <v>3</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="36" t="s">
         <v>58</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H28" s="16"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -2269,6 +2398,1478 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
+      <formula1>$E$1:$E$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{C6B66741-F47D-455B-8804-6A65028B6D77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="72">
+        <v>43370.390277777777</v>
+      </c>
+      <c r="C12" s="73"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="85"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="85"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="85"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="85"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="85"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="85"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="85"/>
+    </row>
+    <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="87"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="42">
+        <v>1</v>
+      </c>
+      <c r="L33" s="42">
+        <v>0</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O33" s="57"/>
+    </row>
+    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="44">
+        <v>2</v>
+      </c>
+      <c r="L34" s="44">
+        <v>2</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="80"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="12">
+        <v>3</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="44">
+        <v>1</v>
+      </c>
+      <c r="L35" s="44">
+        <v>0</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>5</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="12">
+        <v>4</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="44">
+        <v>1</v>
+      </c>
+      <c r="L36" s="44">
+        <v>0</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O36" s="80"/>
+    </row>
+    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="12">
+        <v>5</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="44">
+        <v>1</v>
+      </c>
+      <c r="L37" s="44">
+        <v>0</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" s="80"/>
+    </row>
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="12">
+        <v>6</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="44">
+        <v>1</v>
+      </c>
+      <c r="L38" s="44">
+        <v>0</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="80"/>
+    </row>
+    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="12">
+        <v>7</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="44">
+        <v>1</v>
+      </c>
+      <c r="L39" s="44">
+        <v>0</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="80"/>
+    </row>
+    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="12">
+        <v>8</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="44">
+        <v>0</v>
+      </c>
+      <c r="L40" s="44">
+        <v>0</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O40" s="80"/>
+    </row>
+    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="12">
+        <v>9</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="44">
+        <v>1</v>
+      </c>
+      <c r="L41" s="44">
+        <v>2</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="12">
+        <v>10</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="44">
+        <v>2</v>
+      </c>
+      <c r="L42" s="44">
+        <v>0</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="12">
+        <v>11</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0</v>
+      </c>
+      <c r="L43" s="44">
+        <v>1</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="12">
+        <v>12</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="44">
+        <v>2</v>
+      </c>
+      <c r="M44" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O44" s="80"/>
+    </row>
+    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="16">
+        <v>13</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="46">
+        <v>2</v>
+      </c>
+      <c r="L45" s="46">
+        <v>0</v>
+      </c>
+      <c r="M45" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="20">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{1BCDC175-8BD9-4701-A2F4-7135CE98554F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="76"/>
+    </row>
+    <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="12">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="12">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="16">
+        <v>9</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="48">
+        <v>2</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2290,819 +3891,24 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
-      <formula1>$E$1:$E$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
+      <formula1>$F$1:$F$4</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{C6B66741-F47D-455B-8804-6A65028B6D77}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
-  <dimension ref="A1:O44"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="41">
-        <v>43369.586805555555</v>
-      </c>
-      <c r="C12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="O24" s="45"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="43">
-        <v>1</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="57">
-        <v>1</v>
-      </c>
-      <c r="L26" s="57">
-        <v>0</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-    </row>
-    <row r="27" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="59">
-        <v>2</v>
-      </c>
-      <c r="L27" s="59">
-        <v>2</v>
-      </c>
-      <c r="M27" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="59">
-        <v>1</v>
-      </c>
-      <c r="L28" s="59">
-        <v>0</v>
-      </c>
-      <c r="M28" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>5</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="59">
-        <v>1</v>
-      </c>
-      <c r="L29" s="59">
-        <v>0</v>
-      </c>
-      <c r="M29" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="12">
-        <v>5</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="59">
-        <v>1</v>
-      </c>
-      <c r="L30" s="59">
-        <v>0</v>
-      </c>
-      <c r="M30" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="12">
-        <v>6</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" s="59">
-        <v>1</v>
-      </c>
-      <c r="L31" s="59">
-        <v>0</v>
-      </c>
-      <c r="M31" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="12">
-        <v>7</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="59">
-        <v>1</v>
-      </c>
-      <c r="L32" s="59">
-        <v>0</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="12">
-        <v>8</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="59">
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
-        <v>0</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="12">
-        <v>9</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" s="59">
-        <v>1</v>
-      </c>
-      <c r="L34" s="59">
-        <v>2</v>
-      </c>
-      <c r="M34" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="12">
-        <v>10</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="59">
-        <v>2</v>
-      </c>
-      <c r="L35" s="59">
-        <v>0</v>
-      </c>
-      <c r="M35" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="12">
-        <v>11</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="K36" s="59">
-        <v>0</v>
-      </c>
-      <c r="L36" s="59">
-        <v>1</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="12">
-        <v>12</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" s="59">
-        <v>0</v>
-      </c>
-      <c r="L37" s="59">
-        <v>2</v>
-      </c>
-      <c r="M37" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="16">
-        <v>13</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="61">
-        <v>2</v>
-      </c>
-      <c r="L38" s="61">
-        <v>0</v>
-      </c>
-      <c r="M38" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D14:G15" name="Range1_2"/>
-  </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
-      <formula1>$F$1:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{1BCDC175-8BD9-4701-A2F4-7135CE98554F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
-  <dimension ref="A1:N35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3124,9 +3930,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -3142,62 +3945,69 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="82">
+        <v>43370.433333333334</v>
+      </c>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3207,8 +4017,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3218,436 +4030,228 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="64"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="B17" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="79"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="31"/>
+      <c r="B18" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="45"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="D24" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="51"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+        <v>134</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>5</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="12">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L30" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="12">
+      <c r="B29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>6</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="12">
+      <c r="B30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>7</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="12">
+      <c r="B31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>8</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="16">
+      <c r="B32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>9</v>
       </c>
-      <c r="F34" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="63">
-        <v>2</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3667,349 +4271,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
-      <formula1>$F$1:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="43">
-        <v>1</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <v>10</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D14:G15" name="Range1_2"/>
-  </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{BEEBD12A-5441-471D-8267-1BCDDFF1AB5F}">
@@ -4077,52 +4338,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4132,10 +4393,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4145,55 +4406,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="64"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
@@ -4205,21 +4466,21 @@
       <c r="C24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="44" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="N24" s="45"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -4229,29 +4490,29 @@
         <v>37</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="55" t="s">
         <v>76</v>
       </c>
       <c r="M25" s="17" t="s">
@@ -4271,7 +4532,7 @@
       <c r="C26" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -4281,7 +4542,7 @@
       <c r="G26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -4293,7 +4554,7 @@
       <c r="K26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="L26" s="56" t="s">
         <v>153</v>
       </c>
       <c r="M26" s="13"/>
@@ -4307,7 +4568,7 @@
         <v>168</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="55"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="12">
         <v>2</v>
       </c>
@@ -4317,7 +4578,7 @@
       <c r="G27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -4329,7 +4590,7 @@
       <c r="K27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="56" t="s">
         <v>154</v>
       </c>
       <c r="M27" s="13"/>
@@ -4345,7 +4606,7 @@
       <c r="C28" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="12">
         <v>3</v>
       </c>
@@ -4355,7 +4616,7 @@
       <c r="G28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -4367,7 +4628,7 @@
       <c r="K28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="56" t="s">
         <v>156</v>
       </c>
       <c r="M28" s="13"/>
@@ -4377,7 +4638,7 @@
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="12">
         <v>4</v>
       </c>
@@ -4387,7 +4648,7 @@
       <c r="G29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="53" t="s">
         <v>155</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -4399,7 +4660,7 @@
       <c r="K29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L29" s="73" t="s">
+      <c r="L29" s="56" t="s">
         <v>153</v>
       </c>
       <c r="M29" s="13"/>
@@ -4409,7 +4670,7 @@
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="12">
         <v>5</v>
       </c>
@@ -4419,7 +4680,7 @@
       <c r="G30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -4431,7 +4692,7 @@
       <c r="K30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="73" t="s">
+      <c r="L30" s="56" t="s">
         <v>157</v>
       </c>
       <c r="M30" s="13"/>
@@ -4441,7 +4702,7 @@
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="12">
         <v>6</v>
       </c>
@@ -4451,7 +4712,7 @@
       <c r="G31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -4463,7 +4724,7 @@
       <c r="K31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L31" s="73" t="s">
+      <c r="L31" s="56" t="s">
         <v>159</v>
       </c>
       <c r="M31" s="13"/>
@@ -4473,7 +4734,7 @@
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="12">
         <v>7</v>
       </c>
@@ -4483,7 +4744,7 @@
       <c r="G32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -4495,7 +4756,7 @@
       <c r="K32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="L32" s="56" t="s">
         <v>160</v>
       </c>
       <c r="M32" s="13"/>
@@ -4505,7 +4766,7 @@
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="56"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="12">
         <v>8</v>
       </c>
@@ -4515,7 +4776,7 @@
       <c r="G33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="53" t="s">
         <v>165</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -4527,14 +4788,14 @@
       <c r="K33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L33" s="73" t="s">
+      <c r="L33" s="56" t="s">
         <v>160</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D34" s="56"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="12">
         <v>9</v>
       </c>
@@ -4544,7 +4805,7 @@
       <c r="G34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="53" t="s">
         <v>99</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4556,7 +4817,7 @@
       <c r="K34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="73" t="s">
+      <c r="L34" s="56" t="s">
         <v>162</v>
       </c>
       <c r="M34" s="13"/>
@@ -4566,25 +4827,25 @@
       <c r="E35" s="16">
         <v>10</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="K35" s="63" t="s">
+      <c r="K35" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="L35" s="72" t="s">
+      <c r="L35" s="55" t="s">
         <v>164</v>
       </c>
       <c r="M35" s="17"/>
@@ -4595,12 +4856,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4608,6 +4863,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{30ADB8DD-FFAF-4CC5-B24A-B9ED444FF813}">
@@ -4671,52 +4932,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4726,8 +4987,8 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4737,55 +4998,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="64"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -4797,7 +5058,7 @@
       <c r="C23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
@@ -4807,7 +5068,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="55"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
@@ -4819,7 +5080,7 @@
       <c r="C25" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
@@ -4831,34 +5092,28 @@
       <c r="C26" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="41"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
+      <c r="A29" s="41"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+      <c r="A30" s="41"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4866,6 +5121,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{29D31F47-099E-491B-91B5-AE5E236A45F5}">
@@ -4925,52 +5186,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4980,8 +5241,8 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4991,55 +5252,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="64"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -5051,17 +5312,17 @@
       <c r="C23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="44" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
@@ -5071,17 +5332,17 @@
         <v>37</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="55"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="55" t="s">
         <v>76</v>
       </c>
       <c r="I24" s="17" t="s">
@@ -5101,7 +5362,7 @@
       <c r="C25" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="12">
         <v>1</v>
       </c>
@@ -5111,7 +5372,7 @@
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="56" t="s">
         <v>178</v>
       </c>
       <c r="I25" s="13"/>
@@ -5127,7 +5388,7 @@
       <c r="C26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="12">
         <v>2</v>
       </c>
@@ -5137,17 +5398,17 @@
       <c r="G26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="56" t="s">
         <v>179</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="12">
         <v>3</v>
       </c>
@@ -5157,7 +5418,7 @@
       <c r="G27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="56" t="s">
         <v>180</v>
       </c>
       <c r="I27" s="13"/>
@@ -5167,7 +5428,7 @@
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="12">
         <v>4</v>
       </c>
@@ -5177,7 +5438,7 @@
       <c r="G28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="55" t="s">
         <v>182</v>
       </c>
       <c r="I28" s="13"/>
@@ -5187,23 +5448,23 @@
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="77"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
@@ -5211,11 +5472,11 @@
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="77"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
@@ -5223,28 +5484,28 @@
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="77"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="56"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="77"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E34" s="13"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="77"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
     </row>
@@ -5253,12 +5514,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5266,6 +5521,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67D9BA0C-C89F-491E-91DF-8E402F8116B0}">
@@ -5327,52 +5588,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5382,10 +5643,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5398,55 +5659,55 @@
       <c r="B16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="64"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
@@ -5456,6 +5717,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D16:E16"/>
@@ -5463,12 +5730,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{AC7F70D2-3882-4832-BA21-BFE3000F8A8F}">

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB660B-B8FF-431E-ADA3-FD867FD96C43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F7F8C-B48C-4A99-B56B-570C016584D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="208">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -943,85 +943,28 @@
     <t>&lt;link naar TC8&gt;</t>
   </si>
   <si>
-    <t>1. Rendezvous hotels geeft de melding: no matches found. Voor alle testruns is Swissotel Le Plaza Basel gebruikt ipv Rendezvouw Hotel.</t>
-  </si>
-  <si>
-    <t>2. Bij het tonen van de zoekresultaten lijkt de lay-out van de pagina niet correct.</t>
-  </si>
-  <si>
-    <t>Hotel wordt getoond.</t>
-  </si>
-  <si>
-    <t>3. zoekfunctie naar hotels in een plaats geeft geen resultaten</t>
-  </si>
-  <si>
-    <t>Er worden geen hotels getoond.</t>
-  </si>
-  <si>
-    <t>Melding "No matches found" wordt getoond</t>
-  </si>
-  <si>
-    <t>Het hotel wordt als suggestie weergegeven</t>
-  </si>
-  <si>
-    <t>4. Een disabled hotel in de back-end kan wel gevonden worden in de front-end.</t>
-  </si>
-  <si>
-    <t>Geen foutmelding wordt getoond, zoekresultaat verschijnt</t>
-  </si>
-  <si>
-    <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 1 persoon gezet.</t>
-  </si>
-  <si>
-    <t>Zoekresultaten worden weergegeven</t>
-  </si>
-  <si>
-    <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 1 gezet.</t>
-  </si>
-  <si>
-    <t>Kan niet uitgevoerd worden. Het is niet mogelijk om lege velden te hebben, deze worden automatisch gevuld.</t>
-  </si>
-  <si>
-    <t>6. Systeem accepteert een checkout datum die voor de checkin datum ligt</t>
-  </si>
-  <si>
-    <t>5. Systeem accepteert een ongeldige checkin datum</t>
-  </si>
-  <si>
-    <t>8. Bij een reisgezelschap van 0 volwassenen en 2 kinderen, wordt automatisch 1 volwasenne toegevoegd.</t>
-  </si>
-  <si>
-    <t>7. Bij een reisgezelschap van 0 personen, wordt dit automatisch verandert naar 1 volwassene</t>
-  </si>
-  <si>
-    <t>De functionaliteit heeft een aantal bevindingen die niet wenselijk zijn voor de deployment. Enkel het zoeken naar een hotel is getest, omdat het boeken van een hotel beperkt was door de lay-out pagina beperking van de zoekresultaten.</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Tours Backend</t>
-  </si>
-  <si>
-    <t>Holidays</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Beach Holidays</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>History / culture</t>
-  </si>
-  <si>
-    <t>Alle tourtypes die aanwezig zijn in de back-end zijn terug te vinden in de front-end. Niet alle opties die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
-  </si>
-  <si>
-    <t>Niet alle opties voor tourtypes die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
+    <t xml:space="preserve">http://www.phptravels.net/
+Email user@phptravels.com
+Password demouser
+</t>
+  </si>
+  <si>
+    <t>Kevin Pijpers</t>
+  </si>
+  <si>
+    <t>Voldoet aan verwachtingen. Foutmelding in test run 2,3 en 4: Invalid Email or Password</t>
+  </si>
+  <si>
+    <t>phptravels.net</t>
+  </si>
+  <si>
+    <t>pagina laadt</t>
+  </si>
+  <si>
+    <t>website laadt</t>
+  </si>
+  <si>
+    <t>De pagina die laadt na succesvolle inlog is leeg. Bij teruggaan naar homepage blijkt dat user wel is ingelogd (user Johny in rechter bovenhoek), maar accountdetailspagina blijft leeg.</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,14 +1059,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,13 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1232,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1502,34 +1433,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,7 +1520,7 @@
       <sheetName val="TC7"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="20">
           <cell r="B20" t="str">
@@ -1606,12 +1528,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2071,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14433F0F-1925-450E-AF52-5B31D2F48EE0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView topLeftCell="A17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2433,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2451,10 +2373,8 @@
     <col min="9" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="22" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2462,32 +2382,23 @@
         <v>3</v>
       </c>
       <c r="G1" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2527,7 +2438,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="72">
-        <v>43370.390277777777</v>
+        <v>43369.586805555555</v>
       </c>
       <c r="C12" s="73"/>
     </row>
@@ -2553,7 +2464,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2578,8 +2489,10 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="64"/>
       <c r="G18" s="3"/>
@@ -2600,248 +2513,444 @@
       <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="83"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="85"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="85"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="85"/>
+      <c r="B20" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="76"/>
+    </row>
+    <row r="21" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="85"/>
+      <c r="A24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="85"/>
+      <c r="A25" s="12">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="85"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="85"/>
-    </row>
-    <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="87"/>
+      <c r="A26" s="12">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="42">
+        <v>1</v>
+      </c>
+      <c r="L26" s="42">
+        <v>0</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="44">
+        <v>2</v>
+      </c>
+      <c r="L27" s="44">
+        <v>2</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="44">
+        <v>1</v>
+      </c>
+      <c r="L28" s="44">
+        <v>0</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="44">
+        <v>1</v>
+      </c>
+      <c r="L29" s="44">
+        <v>0</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="44">
+        <v>1</v>
+      </c>
+      <c r="L30" s="44">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="O31" s="30"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="12">
+        <v>6</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="44">
+        <v>1</v>
+      </c>
+      <c r="L31" s="44">
+        <v>0</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="12">
+        <v>7</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="44">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O32" s="18" t="s">
+      <c r="L32" s="44">
+        <v>0</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="44">
+        <v>0</v>
+      </c>
+      <c r="L33" s="44">
+        <v>0</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>2</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="28">
-        <v>1</v>
-      </c>
-      <c r="F33" s="42" t="s">
+      <c r="F34" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G34" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="42">
-        <v>1</v>
-      </c>
-      <c r="L33" s="42">
-        <v>0</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="O33" s="57"/>
-    </row>
-    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="12">
-        <v>2</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>79</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K34" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="44">
         <v>2</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O34" s="80"/>
-    </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>4</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="41"/>
       <c r="E35" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>79</v>
@@ -2853,69 +2962,59 @@
         <v>81</v>
       </c>
       <c r="K35" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="44">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>5</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>107</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="41"/>
       <c r="E36" s="12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>77</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>91</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K36" s="44">
+        <v>0</v>
+      </c>
+      <c r="L36" s="44">
         <v>1</v>
-      </c>
-      <c r="L36" s="44">
-        <v>0</v>
       </c>
       <c r="M36" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="O36" s="80"/>
-    </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="N36" s="13"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="41"/>
       <c r="E37" s="12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>77</v>
@@ -2927,378 +3026,108 @@
         <v>79</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J37" s="44" t="s">
         <v>81</v>
       </c>
       <c r="K37" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O37" s="80"/>
-    </row>
-    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="12">
-        <v>6</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="44">
-        <v>1</v>
-      </c>
-      <c r="L38" s="44">
+      <c r="E38" s="16">
+        <v>13</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="46">
+        <v>2</v>
+      </c>
+      <c r="L38" s="46">
         <v>0</v>
       </c>
-      <c r="M38" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" s="80"/>
-    </row>
-    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="M38" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="41"/>
-      <c r="E39" s="12">
-        <v>7</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="44">
-        <v>1</v>
-      </c>
-      <c r="L39" s="44">
-        <v>0</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O39" s="80"/>
-    </row>
-    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="12">
-        <v>8</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="44">
-        <v>0</v>
-      </c>
-      <c r="L40" s="44">
-        <v>0</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="O40" s="80"/>
-    </row>
-    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="12">
-        <v>9</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41" s="44">
-        <v>1</v>
-      </c>
-      <c r="L41" s="44">
-        <v>2</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="O41" s="34"/>
-    </row>
-    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="41"/>
-      <c r="E42" s="12">
-        <v>10</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42" s="44">
-        <v>2</v>
-      </c>
-      <c r="L42" s="44">
-        <v>0</v>
-      </c>
-      <c r="M42" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="O42" s="34"/>
-    </row>
-    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="12">
-        <v>11</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K43" s="44">
-        <v>0</v>
-      </c>
-      <c r="L43" s="44">
-        <v>1</v>
-      </c>
-      <c r="M43" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="12">
-        <v>12</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="44">
-        <v>2</v>
-      </c>
-      <c r="M44" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="O44" s="80"/>
-    </row>
-    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="16">
-        <v>13</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="46">
-        <v>2</v>
-      </c>
-      <c r="L45" s="46">
-        <v>0</v>
-      </c>
-      <c r="M45" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="O45" s="81"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="20">
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="13">
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -3323,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3905,10 +3734,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3930,6 +3759,9 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -3945,9 +3777,6 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3986,9 +3815,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="82">
-        <v>43370.433333333334</v>
-      </c>
+      <c r="B12" s="63"/>
       <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4000,13 +3827,11 @@
       </c>
       <c r="C13" s="64"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>62</v>
-      </c>
+      <c r="B14" s="63"/>
       <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -4040,10 +3865,10 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="79"/>
+      <c r="B17" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4051,7 +3876,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="64"/>
       <c r="G18" s="3"/>
@@ -4065,13 +3890,13 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="83"/>
+      <c r="B20" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -4108,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="57"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -4119,7 +3944,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -4130,7 +3955,7 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -4141,7 +3966,7 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -4152,7 +3977,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="34"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -4163,7 +3988,7 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="34"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -4174,7 +3999,7 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="41"/>
-      <c r="E31" s="34"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -4187,7 +4012,7 @@
         <v>137</v>
       </c>
       <c r="D32" s="41"/>
-      <c r="E32" s="34"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -4198,7 +4023,7 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
@@ -4211,47 +4036,12 @@
         <v>140</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="37"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>225</v>
-      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4286,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D66423-0735-4DFF-B4DB-B1C8C490DF17}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4888,7 +4678,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4904,9 +4694,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -4917,6 +4704,9 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
@@ -4960,8 +4750,10 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="83">
+        <v>43370.440972222219</v>
+      </c>
+      <c r="C12" s="84"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -4976,7 +4768,9 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="63" t="s">
+        <v>206</v>
+      </c>
       <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -5019,7 +4813,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="64"/>
       <c r="G18" s="3"/>
@@ -5037,7 +4831,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="C20" s="76"/>
     </row>
@@ -5145,22 +4939,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0E331-F889-49A3-8CF7-F010AC3EA9AB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView topLeftCell="C17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -5176,6 +4971,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5214,7 +5012,9 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="78">
+        <v>43370.4375</v>
+      </c>
       <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5230,7 +5030,9 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="63" t="s">
+        <v>205</v>
+      </c>
       <c r="C14" s="64"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -5241,7 +5043,9 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="63" t="s">
+        <v>204</v>
+      </c>
       <c r="C15" s="64"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -5273,7 +5077,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="64"/>
       <c r="G18" s="3"/>
@@ -5282,7 +5086,9 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="63" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
@@ -5291,7 +5097,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="C20" s="76"/>
     </row>
@@ -5376,7 +5182,7 @@
         <v>178</v>
       </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -5402,7 +5208,7 @@
         <v>179</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
@@ -5422,7 +5228,7 @@
         <v>180</v>
       </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
@@ -5442,7 +5248,7 @@
         <v>182</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
@@ -5543,10 +5349,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459D5DF-FC12-4046-955C-5EF0A28D7646}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5560,9 +5366,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -5578,6 +5381,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5608,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="C11" s="64"/>
     </row>
@@ -5616,8 +5422,10 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="70">
+        <v>43370.429861111108</v>
+      </c>
+      <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -5644,7 +5452,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="13"/>
@@ -5665,7 +5473,7 @@
       <c r="E16" s="64"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -5675,17 +5483,17 @@
       <c r="C17" s="75"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="64"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -5693,7 +5501,7 @@
       <c r="C19" s="64"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
@@ -5702,15 +5510,92 @@
       </c>
       <c r="C20" s="76"/>
     </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="30"/>
+      <c r="E24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="81"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F7F8C-B48C-4A99-B56B-570C016584D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39051819-A0D2-49E5-B462-C7E43CE75003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="253">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -943,28 +943,164 @@
     <t>&lt;link naar TC8&gt;</t>
   </si>
   <si>
+    <t>1. Rendezvous hotels geeft de melding: no matches found. Voor alle testruns is Swissotel Le Plaza Basel gebruikt ipv Rendezvouw Hotel.</t>
+  </si>
+  <si>
+    <t>2. Bij het tonen van de zoekresultaten lijkt de lay-out van de pagina niet correct.</t>
+  </si>
+  <si>
+    <t>Hotel wordt getoond.</t>
+  </si>
+  <si>
+    <t>3. zoekfunctie naar hotels in een plaats geeft geen resultaten</t>
+  </si>
+  <si>
+    <t>Er worden geen hotels getoond.</t>
+  </si>
+  <si>
+    <t>Melding "No matches found" wordt getoond</t>
+  </si>
+  <si>
+    <t>Het hotel wordt als suggestie weergegeven</t>
+  </si>
+  <si>
+    <t>4. Een disabled hotel in de back-end kan wel gevonden worden in de front-end.</t>
+  </si>
+  <si>
+    <t>Geen foutmelding wordt getoond, zoekresultaat verschijnt</t>
+  </si>
+  <si>
+    <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 1 persoon gezet.</t>
+  </si>
+  <si>
+    <t>Zoekresultaten worden weergegeven</t>
+  </si>
+  <si>
+    <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 1 gezet.</t>
+  </si>
+  <si>
+    <t>Kan niet uitgevoerd worden. Het is niet mogelijk om lege velden te hebben, deze worden automatisch gevuld.</t>
+  </si>
+  <si>
+    <t>6. Systeem accepteert een checkout datum die voor de checkin datum ligt</t>
+  </si>
+  <si>
+    <t>5. Systeem accepteert een ongeldige checkin datum</t>
+  </si>
+  <si>
+    <t>8. Bij een reisgezelschap van 0 volwassenen en 2 kinderen, wordt automatisch 1 volwasenne toegevoegd.</t>
+  </si>
+  <si>
+    <t>7. Bij een reisgezelschap van 0 personen, wordt dit automatisch verandert naar 1 volwassene</t>
+  </si>
+  <si>
+    <t>De functionaliteit heeft een aantal bevindingen die niet wenselijk zijn voor de deployment. Enkel het zoeken naar een hotel is getest, omdat het boeken van een hotel beperkt was door de lay-out pagina beperking van de zoekresultaten.</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Tours Backend</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Beach Holidays</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>History / culture</t>
+  </si>
+  <si>
+    <t>Alle tourtypes die aanwezig zijn in de back-end zijn terug te vinden in de front-end. Niet alle opties die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
+  </si>
+  <si>
+    <t>Niet alle opties voor tourtypes die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
+  </si>
+  <si>
+    <t>website laadt</t>
+  </si>
+  <si>
+    <t>De pagina die laadt na succesvolle inlog is leeg. Bij teruggaan naar homepage blijkt dat user wel is ingelogd (user Johny in rechter bovenhoek), maar accountdetailspagina blijft leeg.</t>
+  </si>
+  <si>
+    <t>pagina laadt</t>
+  </si>
+  <si>
+    <t>phptravels.net</t>
+  </si>
+  <si>
+    <t>Voldoet aan verwachtingen. Foutmelding in test run 2,3 en 4: Invalid Email or Password</t>
+  </si>
+  <si>
+    <t>Alle schermen laden en zijn inzichtelijk, met uitzondering van de schermen zoals al aangegeven bij andere testcases.</t>
+  </si>
+  <si>
+    <t>Beschikbaar, wordt getoond</t>
+  </si>
+  <si>
+    <t>tour wordt niet gevonden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled tour wordt wel gevonden, zie github issue#16 </t>
+  </si>
+  <si>
+    <t>Geen foutmelding, gaat verder naar boekingspagina. Zie github issue#10</t>
+  </si>
+  <si>
+    <t>invalid, reisgezelschap hardcoded &gt;0</t>
+  </si>
+  <si>
+    <t>No matches found</t>
+  </si>
+  <si>
+    <t>Geen foutmelding, gaat verder naar boekingspagina. Zie github issue#9</t>
+  </si>
+  <si>
+    <t>invalid, deze velden kunnen niet leeg zijn -&gt; dropdown menu</t>
+  </si>
+  <si>
+    <t>Zie lijst met fails in tabel parameters ------&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.phptravels.net/
 Email user@phptravels.com
 Password demouser
 </t>
   </si>
   <si>
-    <t>Kevin Pijpers</t>
-  </si>
-  <si>
-    <t>Voldoet aan verwachtingen. Foutmelding in test run 2,3 en 4: Invalid Email or Password</t>
-  </si>
-  <si>
-    <t>phptravels.net</t>
-  </si>
-  <si>
-    <t>pagina laadt</t>
-  </si>
-  <si>
-    <t>website laadt</t>
-  </si>
-  <si>
-    <t>De pagina die laadt na succesvolle inlog is leeg. Bij teruggaan naar homepage blijkt dat user wel is ingelogd (user Johny in rechter bovenhoek), maar accountdetailspagina blijft leeg.</t>
+    <t>The First name field is required.</t>
+  </si>
+  <si>
+    <t>The Last Name field is required.</t>
+  </si>
+  <si>
+    <t>Account is inderdaad aangemaakt, pagina is blanco (zie github issue#1)</t>
+  </si>
+  <si>
+    <t>The Email field is required.</t>
+  </si>
+  <si>
+    <t>The Email field must contain a valid email address.</t>
+  </si>
+  <si>
+    <t>The Password field is required.
+Password not matching with confirm password.</t>
+  </si>
+  <si>
+    <t>The Password field is required.</t>
+  </si>
+  <si>
+    <t>The * field is required</t>
+  </si>
+  <si>
+    <t>Password not matching with confirm password.</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1059,8 +1195,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1382,6 +1536,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1421,37 +1605,46 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1713,7 @@
       <sheetName val="TC7"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="20">
           <cell r="B20" t="str">
@@ -1528,12 +1721,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1863,7 +2056,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1993,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14433F0F-1925-450E-AF52-5B31D2F48EE0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2040,56 +2233,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="80">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2099,10 +2292,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2112,57 +2305,57 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="76"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
@@ -2355,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2373,8 +2566,10 @@
     <col min="9" max="10" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="32.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2382,23 +2577,32 @@
         <v>3</v>
       </c>
       <c r="G1" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2409,67 +2613,67 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="72">
-        <v>43369.586805555555</v>
-      </c>
-      <c r="C12" s="73"/>
+      <c r="B12" s="82">
+        <v>43370.390277777777</v>
+      </c>
+      <c r="C12" s="83"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2479,478 +2683,280 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="75"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="76"/>
-    </row>
-    <row r="21" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="88"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="90"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="90"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="90"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="90"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="90"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="90"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="90"/>
+    </row>
+    <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="B28" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="85"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="N31" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="16" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F32" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G32" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H32" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J32" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="46" t="s">
+      <c r="K32" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="56" t="s">
+      <c r="M32" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O32" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="28">
+      <c r="C33" s="13"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G33" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H33" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I33" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J33" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K33" s="42">
         <v>1</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L33" s="42">
         <v>0</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M33" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="N33" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O33" s="57"/>
+    </row>
+    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="12">
+      <c r="C34" s="13"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F34" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G34" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="44">
-        <v>2</v>
-      </c>
-      <c r="L27" s="44">
-        <v>2</v>
-      </c>
-      <c r="M27" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="44">
-        <v>1</v>
-      </c>
-      <c r="L28" s="44">
-        <v>0</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>5</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="44">
-        <v>1</v>
-      </c>
-      <c r="L29" s="44">
-        <v>0</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="12">
-        <v>5</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="44">
-        <v>1</v>
-      </c>
-      <c r="L30" s="44">
-        <v>0</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="12">
-        <v>6</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" s="44">
-        <v>1</v>
-      </c>
-      <c r="L31" s="44">
-        <v>0</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="12">
-        <v>7</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="44">
-        <v>1</v>
-      </c>
-      <c r="L32" s="44">
-        <v>0</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="12">
-        <v>8</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="44">
-        <v>0</v>
-      </c>
-      <c r="L33" s="44">
-        <v>0</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="12">
-        <v>9</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>78</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>79</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K34" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="44">
         <v>2</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="61"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="D35" s="41"/>
       <c r="E35" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>79</v>
@@ -2962,59 +2968,69 @@
         <v>81</v>
       </c>
       <c r="K35" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="44">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>5</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D36" s="41"/>
       <c r="E36" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>77</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>91</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K36" s="44">
+        <v>1</v>
+      </c>
+      <c r="L36" s="44">
         <v>0</v>
-      </c>
-      <c r="L36" s="44">
-        <v>1</v>
       </c>
       <c r="M36" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="41"/>
       <c r="E37" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>77</v>
@@ -3026,108 +3042,378 @@
         <v>79</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J37" s="44" t="s">
         <v>81</v>
       </c>
       <c r="K37" s="44">
+        <v>1</v>
+      </c>
+      <c r="L37" s="44">
         <v>0</v>
       </c>
-      <c r="L37" s="44">
-        <v>2</v>
-      </c>
       <c r="M37" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="16">
-        <v>13</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="46">
-        <v>2</v>
-      </c>
-      <c r="L38" s="46">
+      <c r="E38" s="12">
+        <v>6</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="44">
+        <v>1</v>
+      </c>
+      <c r="L38" s="44">
         <v>0</v>
       </c>
-      <c r="M38" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M38" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E39" s="12">
+        <v>7</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="44">
+        <v>1</v>
+      </c>
+      <c r="L39" s="44">
+        <v>0</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="61"/>
+    </row>
+    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E40" s="12">
+        <v>8</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="44">
+        <v>0</v>
+      </c>
+      <c r="L40" s="44">
+        <v>0</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O40" s="61"/>
+    </row>
+    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E41" s="12">
+        <v>9</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="44">
+        <v>1</v>
+      </c>
+      <c r="L41" s="44">
+        <v>2</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E42" s="12">
+        <v>10</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="44">
+        <v>2</v>
+      </c>
+      <c r="L42" s="44">
+        <v>0</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="41"/>
+      <c r="E43" s="12">
+        <v>11</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0</v>
+      </c>
+      <c r="L43" s="44">
+        <v>1</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="12">
+        <v>12</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="44">
+        <v>2</v>
+      </c>
+      <c r="M44" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O44" s="61"/>
+    </row>
+    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="16">
+        <v>13</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="46">
+        <v>2</v>
+      </c>
+      <c r="L45" s="46">
+        <v>0</v>
+      </c>
+      <c r="M45" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O45" s="62"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="20">
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -3150,10 +3436,669 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="79"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="80">
+        <v>43370.559027777781</v>
+      </c>
+      <c r="C12" s="76"/>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="88"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="N28" s="61"/>
+    </row>
+    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="D29" s="41"/>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="61"/>
+    </row>
+    <row r="30" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="D30" s="41"/>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="N30" s="68"/>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="12">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="12">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32" s="68"/>
+    </row>
+    <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" s="61"/>
+    </row>
+    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="16">
+        <v>9</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="48">
+        <v>2</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N34" s="69"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>5</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="20">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3175,9 +4120,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -3193,62 +4135,69 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="93">
+        <v>43370.433333333334</v>
+      </c>
+      <c r="C12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="64"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3258,8 +4207,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3269,641 +4220,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="76"/>
-    </row>
-    <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>5</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="12">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="12">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="12">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="12">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="16">
-        <v>9</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="48">
-        <v>2</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D14:G15" name="Range1_2"/>
-  </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
-      <formula1>$F$1:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="69"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="64"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="64"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="75"/>
+      <c r="B17" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="87"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="B20" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="88"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
@@ -3933,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -3944,7 +4309,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -3955,7 +4320,7 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -3966,7 +4331,7 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -3977,7 +4342,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -3988,7 +4353,7 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -3999,7 +4364,7 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="41"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -4012,7 +4377,7 @@
         <v>137</v>
       </c>
       <c r="D32" s="41"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -4023,7 +4388,7 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
@@ -4036,12 +4401,47 @@
         <v>140</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4076,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D66423-0735-4DFF-B4DB-B1C8C490DF17}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4100,9 +4500,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -4118,6 +4515,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -4128,52 +4528,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="80">
+        <v>43370.582638888889</v>
+      </c>
+      <c r="C12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4183,10 +4585,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4196,55 +4598,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="92"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
@@ -4312,7 +4714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2</v>
       </c>
@@ -4347,10 +4749,12 @@
       <c r="L26" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="M26" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>3</v>
       </c>
@@ -4383,10 +4787,12 @@
       <c r="L27" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>4</v>
       </c>
@@ -4421,10 +4827,12 @@
       <c r="L28" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M28" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -4453,10 +4861,12 @@
       <c r="L29" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -4485,10 +4895,12 @@
       <c r="L30" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -4517,10 +4929,12 @@
       <c r="L31" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M31" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -4549,10 +4963,12 @@
       <c r="L32" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -4581,10 +4997,12 @@
       <c r="L33" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="D34" s="41"/>
       <c r="E34" s="12">
         <v>9</v>
@@ -4610,10 +5028,12 @@
       <c r="L34" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M34" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="E35" s="16">
         <v>10</v>
       </c>
@@ -4638,8 +5058,10 @@
       <c r="L35" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="M35" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" s="70"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4677,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FB760-B5AE-4E8E-AA26-702C9D1B0054}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4722,56 +5144,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="83">
-        <v>43370.440972222219</v>
-      </c>
-      <c r="C12" s="84"/>
+      <c r="B12" s="93">
+        <v>43370.444444444445</v>
+      </c>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="64"/>
+      <c r="B14" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4781,8 +5203,8 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4792,55 +5214,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="92"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="B20" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -4939,17 +5361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0E331-F889-49A3-8CF7-F010AC3EA9AB}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J28"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4984,56 +5404,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="93">
         <v>43370.4375</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="64"/>
+      <c r="B14" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5043,10 +5463,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5056,57 +5476,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="92"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="B20" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -5181,8 +5599,8 @@
       <c r="H25" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -5207,8 +5625,8 @@
       <c r="H26" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
@@ -5227,8 +5645,8 @@
       <c r="H27" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
@@ -5247,8 +5665,8 @@
       <c r="H28" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
@@ -5351,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459D5DF-FC12-4046-955C-5EF0A28D7646}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5394,54 +5812,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="64"/>
+      <c r="B11" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="70">
-        <v>43370.429861111108</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="95">
+        <v>43370.416666666664</v>
+      </c>
+      <c r="C12" s="96"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5451,10 +5869,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="64"/>
+      <c r="B15" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5467,55 +5885,55 @@
       <c r="B16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="64"/>
+      <c r="E16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="92"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="B20" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -5524,7 +5942,7 @@
       <c r="B23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="64" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -5565,7 +5983,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="80"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
@@ -5575,7 +5993,7 @@
       <c r="F26" s="49"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="81"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -5585,7 +6003,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="17"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="82"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39051819-A0D2-49E5-B462-C7E43CE75003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA031D5-3A41-4413-B7EE-DB8883040517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="252">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Bevindingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschrijving van de bevinding en verwijzing naar de registratie van de bevinding </t>
   </si>
   <si>
     <t>Omgeving:</t>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Onvoorzien:</t>
-  </si>
-  <si>
-    <t>Wat per toeval gevonden wordt, niet direct gerelateerd aan de test maar wat wel opgemerkt dient te worden.</t>
   </si>
   <si>
     <t>Opmerkingen/
@@ -562,9 +556,6 @@
     <t xml:space="preserve"> Hong Kong Island Tour </t>
   </si>
   <si>
-    <t xml:space="preserve"> Disables </t>
-  </si>
-  <si>
     <t xml:space="preserve"> morgen </t>
   </si>
   <si>
@@ -927,11 +918,6 @@
     <t xml:space="preserve">Voor deze testcase is er gebruik gemaakt van exploratory testing. We verwachten dat er geen problemen optreden tijdens het navigeren door verschillende schermen heen. </t>
   </si>
   <si>
-    <t>Acties en stappen die uitgevoerd dienen te worden
-Verwachte resultaat
-Werkelijke resultaat</t>
-  </si>
-  <si>
     <t>Als een klant
  Wil ik kunnen navigeren over de website
  Zodat ik alle schermen kan zien</t>
@@ -1030,15 +1016,9 @@
     <t>De pagina die laadt na succesvolle inlog is leeg. Bij teruggaan naar homepage blijkt dat user wel is ingelogd (user Johny in rechter bovenhoek), maar accountdetailspagina blijft leeg.</t>
   </si>
   <si>
-    <t>pagina laadt</t>
-  </si>
-  <si>
     <t>phptravels.net</t>
   </si>
   <si>
-    <t>Voldoet aan verwachtingen. Foutmelding in test run 2,3 en 4: Invalid Email or Password</t>
-  </si>
-  <si>
     <t>Alle schermen laden en zijn inzichtelijk, met uitzondering van de schermen zoals al aangegeven bij andere testcases.</t>
   </si>
   <si>
@@ -1064,9 +1044,6 @@
   </si>
   <si>
     <t>invalid, deze velden kunnen niet leeg zijn -&gt; dropdown menu</t>
-  </si>
-  <si>
-    <t>Zie lijst met fails in tabel parameters ------&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.phptravels.net/
@@ -1101,6 +1078,24 @@
   </si>
   <si>
     <t>Password not matching with confirm password.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Geen bijzonderheden waargenomen.</t>
+  </si>
+  <si>
+    <t>De accountpagina is blanco</t>
+  </si>
+  <si>
+    <t>Foutmelding: Invalid Email or Password</t>
+  </si>
+  <si>
+    <t>Geregistreerd issue #</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,12 +1225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1375,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1411,12 +1400,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,12 +1433,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1542,21 +1519,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1566,6 +1528,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1573,31 +1565,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1605,33 +1594,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1644,7 +1606,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2053,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -2064,11 +2046,12 @@
     <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="32.6640625" style="94" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2078,92 +2061,119 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="93" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="str">
+        <v>185</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="63" t="str">
         <f>[1]TC1!B20</f>
         <v xml:space="preserve">Beschrijving van de bevinding en verwijzing naar de registratie van de bevinding </v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="E3" s="92"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="92"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="92"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="92"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="92"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="92"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2186,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14433F0F-1925-450E-AF52-5B31D2F48EE0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2217,299 +2227,299 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="80">
+        <v>16</v>
+      </c>
+      <c r="B12" s="69">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="76"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="70"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="76"/>
+      <c r="B20" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="76"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="38" t="s">
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14">
+        <v>3</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="H28" s="14"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>6</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="16">
-        <v>3</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
-        <v>6</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
@@ -2519,12 +2529,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2532,6 +2536,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
@@ -2550,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2606,40 +2616,40 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="82">
         <v>43370.390277777777</v>
@@ -2648,758 +2658,764 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="88"/>
+      <c r="B20" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="79"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="90"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="81"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="89" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="81"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="90"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="81"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="90"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="81"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="90"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="81"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="90"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="81"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="90"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="81"/>
     </row>
     <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="85"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30" t="s">
+      <c r="A31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="O32" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>2</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="24">
+        <v>1</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="38">
+        <v>1</v>
+      </c>
+      <c r="L33" s="38">
+        <v>0</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O33" s="53"/>
+    </row>
+    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O31" s="30"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="C34" s="11"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="40">
+        <v>2</v>
+      </c>
+      <c r="L34" s="40">
+        <v>2</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" s="57"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="10">
+        <v>3</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="40">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="48" t="s">
+      <c r="L35" s="40">
+        <v>0</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>5</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="10">
+        <v>4</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="56" t="s">
+      <c r="G36" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O32" s="18" t="s">
+      <c r="H36" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="40">
+        <v>1</v>
+      </c>
+      <c r="L36" s="40">
+        <v>0</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="O36" s="57"/>
+    </row>
+    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="10">
+        <v>5</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="40">
+        <v>1</v>
+      </c>
+      <c r="L37" s="40">
+        <v>0</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O37" s="57"/>
+    </row>
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="10">
+        <v>6</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="40">
+        <v>1</v>
+      </c>
+      <c r="L38" s="40">
+        <v>0</v>
+      </c>
+      <c r="M38" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O38" s="57"/>
+    </row>
+    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="10">
+        <v>7</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="40">
+        <v>1</v>
+      </c>
+      <c r="L39" s="40">
+        <v>0</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O39" s="57"/>
+    </row>
+    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="10">
+        <v>8</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="O40" s="57"/>
+    </row>
+    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="F41" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="40">
+        <v>1</v>
+      </c>
+      <c r="L41" s="40">
         <v>2</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="28">
+      <c r="M41" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="10">
+        <v>10</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="40">
+        <v>2</v>
+      </c>
+      <c r="L42" s="40">
+        <v>0</v>
+      </c>
+      <c r="M42" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="10">
+        <v>11</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" s="40">
+        <v>0</v>
+      </c>
+      <c r="L43" s="40">
         <v>1</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="M43" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="10">
+        <v>12</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="I44" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="J44" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="K44" s="40">
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <v>2</v>
+      </c>
+      <c r="M44" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="42">
-        <v>1</v>
-      </c>
-      <c r="L33" s="42">
+      <c r="N44" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="57"/>
+    </row>
+    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="14">
+        <v>13</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="42">
+        <v>2</v>
+      </c>
+      <c r="L45" s="42">
         <v>0</v>
       </c>
-      <c r="M33" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="O33" s="57"/>
-    </row>
-    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="12">
-        <v>2</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34" s="44">
-        <v>2</v>
-      </c>
-      <c r="L34" s="44">
-        <v>2</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O34" s="61"/>
-    </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>4</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="12">
-        <v>3</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="44">
-        <v>1</v>
-      </c>
-      <c r="L35" s="44">
-        <v>0</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>5</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="12">
-        <v>4</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="44">
-        <v>1</v>
-      </c>
-      <c r="L36" s="44">
-        <v>0</v>
-      </c>
-      <c r="M36" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="O36" s="61"/>
-    </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="12">
-        <v>5</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" s="44">
-        <v>1</v>
-      </c>
-      <c r="L37" s="44">
-        <v>0</v>
-      </c>
-      <c r="M37" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="13" t="s">
+      <c r="M45" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="O37" s="61"/>
-    </row>
-    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="12">
-        <v>6</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="44">
-        <v>1</v>
-      </c>
-      <c r="L38" s="44">
-        <v>0</v>
-      </c>
-      <c r="M38" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O38" s="61"/>
-    </row>
-    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="12">
-        <v>7</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="44">
-        <v>1</v>
-      </c>
-      <c r="L39" s="44">
-        <v>0</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O39" s="61"/>
-    </row>
-    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="12">
-        <v>8</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="44">
-        <v>0</v>
-      </c>
-      <c r="L40" s="44">
-        <v>0</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="O40" s="61"/>
-    </row>
-    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="12">
-        <v>9</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41" s="44">
-        <v>1</v>
-      </c>
-      <c r="L41" s="44">
-        <v>2</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="O41" s="34"/>
-    </row>
-    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="12">
-        <v>10</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42" s="44">
-        <v>2</v>
-      </c>
-      <c r="L42" s="44">
-        <v>0</v>
-      </c>
-      <c r="M42" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="O42" s="34"/>
-    </row>
-    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="12">
-        <v>11</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K43" s="44">
-        <v>0</v>
-      </c>
-      <c r="L43" s="44">
-        <v>1</v>
-      </c>
-      <c r="M43" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="12">
-        <v>12</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="44">
-        <v>2</v>
-      </c>
-      <c r="M44" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="O44" s="61"/>
-    </row>
-    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="16">
-        <v>13</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="46">
-        <v>2</v>
-      </c>
-      <c r="L45" s="46">
-        <v>0</v>
-      </c>
-      <c r="M45" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="O45" s="62"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3414,12 +3430,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
@@ -3436,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3454,7 +3464,7 @@
     <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -3484,601 +3494,555 @@
         <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="80">
+        <v>16</v>
+      </c>
+      <c r="B12" s="69">
         <v>43370.559027777781</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="88"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
+      <c r="B20" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="79"/>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="30"/>
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="K25" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="48" t="s">
+      <c r="L25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="55" t="s">
+      <c r="G26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M25" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L26" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="N26" s="34"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="N27" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="12">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="10">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="N28" s="57"/>
+    </row>
+    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>5</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="10">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="N28" s="61"/>
-    </row>
-    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="D29" s="41"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="N29" s="61"/>
+        <v>118</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N29" s="57"/>
     </row>
     <row r="30" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="D30" s="41"/>
-      <c r="E30" s="12">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="10">
         <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="N30" s="68"/>
+        <v>118</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="12">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="10">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="N31" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="12">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="10">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="N32" s="68"/>
+        <v>123</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>2</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="12">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="10">
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="N33" s="61"/>
+        <v>118</v>
+      </c>
+      <c r="L33" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N33" s="57"/>
     </row>
     <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="16">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="14">
         <v>9</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="48">
+      <c r="F34" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="44">
         <v>2</v>
       </c>
-      <c r="K34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="N34" s="69"/>
+      <c r="K34" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="N34" s="60"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>4</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>5</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="20">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="13">
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
@@ -4097,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4141,306 +4105,306 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="93">
+        <v>16</v>
+      </c>
+      <c r="B12" s="84">
         <v>43370.433333333334</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="87"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="88"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="C25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>6</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>7</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
-        <v>1</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>10</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="34"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <v>10</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="37"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4448,12 +4412,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4461,6 +4419,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{BEEBD12A-5441-471D-8267-1BCDDFF1AB5F}">
@@ -4477,7 +4441,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4521,553 +4485,559 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="80">
+        <v>16</v>
+      </c>
+      <c r="B12" s="69">
         <v>43370.582638888889</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="94"/>
-    </row>
-    <row r="21" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="30"/>
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="J25" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="K25" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="L25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="G26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="H26" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="17" t="s">
+      <c r="J26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="10">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="30"/>
+    </row>
+    <row r="29" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="10">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="N29" s="30"/>
+    </row>
+    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="10">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="10">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="N32" s="30"/>
+    </row>
+    <row r="33" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="10">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N33" s="30"/>
+    </row>
+    <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="D34" s="37"/>
+      <c r="E34" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="E35" s="14">
+        <v>10</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="N26" s="34"/>
-    </row>
-    <row r="27" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>4</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" s="13" t="s">
+      <c r="K35" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="M35" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="12">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="12">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="12">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="12">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D34" s="41"/>
-      <c r="E34" s="12">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N34" s="34"/>
-    </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="E35" s="16">
-        <v>10</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N35" s="70"/>
+      <c r="N35" s="61"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5075,12 +5045,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{30ADB8DD-FFAF-4CC5-B24A-B9ED444FF813}">
@@ -5099,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FB760-B5AE-4E8E-AA26-702C9D1B0054}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5137,199 +5101,213 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="93">
+        <v>16</v>
+      </c>
+      <c r="B12" s="84">
         <v>43370.444444444445</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="94"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>3</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="37"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="37"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5337,12 +5315,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{29D31F47-099E-491B-91B5-AE5E236A45F5}">
@@ -5362,7 +5334,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5397,347 +5369,355 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="93">
+        <v>16</v>
+      </c>
+      <c r="B12" s="84">
         <v>43370.4375</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="94"/>
-    </row>
-    <row r="21" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="30"/>
+      <c r="A23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="B24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>2</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="D26" s="36"/>
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="I27" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="10">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="12">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="56" t="s">
+      <c r="H28" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="12">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="12">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="15"/>
+      <c r="I28" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="41"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="E34" s="13"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5745,12 +5725,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67D9BA0C-C89F-491E-91DF-8E402F8116B0}">
@@ -5767,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459D5DF-FC12-4046-955C-5EF0A28D7646}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5794,245 +5768,159 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="79"/>
+      <c r="B10" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="74"/>
+      <c r="B11" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="95">
+        <v>16</v>
+      </c>
+      <c r="B12" s="86">
         <v>43370.416666666664</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="87"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="92"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="65"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="94"/>
-    </row>
-    <row r="21" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="85"/>
+    </row>
+    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="30"/>
-      <c r="E24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="65"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="67"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{AC7F70D2-3882-4832-BA21-BFE3000F8A8F}">

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA031D5-3A41-4413-B7EE-DB8883040517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383FCE92-64FA-4F44-85B2-131D52491126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="251">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -941,9 +941,6 @@
     <t>3. zoekfunctie naar hotels in een plaats geeft geen resultaten</t>
   </si>
   <si>
-    <t>Er worden geen hotels getoond.</t>
-  </si>
-  <si>
     <t>Melding "No matches found" wordt getoond</t>
   </si>
   <si>
@@ -956,15 +953,9 @@
     <t>Geen foutmelding wordt getoond, zoekresultaat verschijnt</t>
   </si>
   <si>
-    <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 1 persoon gezet.</t>
-  </si>
-  <si>
     <t>Zoekresultaten worden weergegeven</t>
   </si>
   <si>
-    <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 1 gezet.</t>
-  </si>
-  <si>
     <t>Kan niet uitgevoerd worden. Het is niet mogelijk om lege velden te hebben, deze worden automatisch gevuld.</t>
   </si>
   <si>
@@ -1013,13 +1004,7 @@
     <t>website laadt</t>
   </si>
   <si>
-    <t>De pagina die laadt na succesvolle inlog is leeg. Bij teruggaan naar homepage blijkt dat user wel is ingelogd (user Johny in rechter bovenhoek), maar accountdetailspagina blijft leeg.</t>
-  </si>
-  <si>
     <t>phptravels.net</t>
-  </si>
-  <si>
-    <t>Alle schermen laden en zijn inzichtelijk, met uitzondering van de schermen zoals al aangegeven bij andere testcases.</t>
   </si>
   <si>
     <t>Beschikbaar, wordt getoond</t>
@@ -1089,13 +1074,25 @@
     <t>Geen bijzonderheden waargenomen.</t>
   </si>
   <si>
-    <t>De accountpagina is blanco</t>
-  </si>
-  <si>
     <t>Foutmelding: Invalid Email or Password</t>
   </si>
   <si>
     <t>Geregistreerd issue #</t>
+  </si>
+  <si>
+    <t>Hotel Grand Plaza Appartments in London wordt getoond</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>kan niet testen, geen inlog backend</t>
+  </si>
+  <si>
+    <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 2 gezet.</t>
+  </si>
+  <si>
+    <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 2 persoon gezet.</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1372,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1534,78 +1531,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1613,9 +1538,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1627,6 +1549,78 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1693,13 +1687,14 @@
       <sheetName val="TC5"/>
       <sheetName val="TC6"/>
       <sheetName val="TC7"/>
+      <sheetName val="TC8"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="20">
           <cell r="B20" t="str">
-            <v xml:space="preserve">Beschrijving van de bevinding en verwijzing naar de registratie van de bevinding </v>
+            <v>Zie testcase onderaan de pagina.</v>
           </cell>
         </row>
       </sheetData>
@@ -1709,6 +1704,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2046,7 +2042,7 @@
     <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="32.6640625" style="94" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="69" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -2061,11 +2057,11 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="68" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
@@ -2075,14 +2071,14 @@
       <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>246</v>
+      <c r="C3" s="70" t="s">
+        <v>241</v>
       </c>
       <c r="D3" s="63" t="str">
         <f>[1]TC1!B20</f>
-        <v xml:space="preserve">Beschrijving van de bevinding en verwijzing naar de registratie van de bevinding </v>
-      </c>
-      <c r="E3" s="92"/>
+        <v>Zie testcase onderaan de pagina.</v>
+      </c>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -2091,11 +2087,11 @@
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>247</v>
+      <c r="C4" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="D4" s="63"/>
-      <c r="E4" s="92"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -2104,11 +2100,11 @@
       <c r="B5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>247</v>
+      <c r="C5" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="D5" s="63"/>
-      <c r="E5" s="92"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -2117,11 +2113,11 @@
       <c r="B6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>246</v>
+      <c r="C6" s="70" t="s">
+        <v>241</v>
       </c>
       <c r="D6" s="63"/>
-      <c r="E6" s="92"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2130,11 +2126,11 @@
       <c r="B7" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>246</v>
+      <c r="C7" s="70" t="s">
+        <v>241</v>
       </c>
       <c r="D7" s="63"/>
-      <c r="E7" s="92"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -2143,11 +2139,11 @@
       <c r="B8" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>247</v>
+      <c r="C8" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="92"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -2156,11 +2152,11 @@
       <c r="B9" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>246</v>
+      <c r="C9" s="70" t="s">
+        <v>241</v>
       </c>
       <c r="D9" s="63"/>
-      <c r="E9" s="92"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -2169,11 +2165,11 @@
       <c r="B10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>247</v>
+      <c r="C10" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="D10" s="63"/>
-      <c r="E10" s="92"/>
+      <c r="E10" s="67"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2196,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14433F0F-1925-450E-AF52-5B31D2F48EE0}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView topLeftCell="C14" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2243,56 +2239,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="81">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2302,8 +2298,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2313,59 +2309,59 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="77"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="76"/>
+      <c r="B21" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
@@ -2529,6 +2525,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2536,12 +2538,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
@@ -2558,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2611,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2623,56 +2619,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="83">
         <v>43370.390277777777</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="84"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2682,8 +2678,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2693,104 +2689,104 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="87"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="89"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="81"/>
+      <c r="C22" s="89"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="81"/>
+      <c r="B23" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="89"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="81"/>
+      <c r="B24" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="89"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="81"/>
+      <c r="B25" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="89"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="81"/>
+      <c r="B26" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="89"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="81"/>
+      <c r="B27" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="89"/>
     </row>
     <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="76"/>
+      <c r="B28" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="73"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
@@ -2866,7 +2862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>2</v>
       </c>
@@ -2907,7 +2903,7 @@
       </c>
       <c r="O33" s="53"/>
     </row>
-    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>3</v>
       </c>
@@ -2944,11 +2940,14 @@
         <v>85</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O34" s="57"/>
-    </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -2987,11 +2986,11 @@
         <v>88</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>5</v>
       </c>
@@ -3030,11 +3029,14 @@
         <v>88</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O36" s="57"/>
-    </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="P36" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3067,11 +3069,11 @@
         <v>91</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O37" s="57"/>
     </row>
-    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3104,11 +3106,11 @@
         <v>91</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O38" s="57"/>
     </row>
-    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3141,11 +3143,11 @@
         <v>94</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O39" s="57"/>
     </row>
-    <row r="40" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3178,11 +3180,11 @@
         <v>95</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="O40" s="57"/>
     </row>
-    <row r="41" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3215,11 +3217,11 @@
         <v>80</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3252,11 +3254,11 @@
         <v>80</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3289,11 +3291,11 @@
         <v>88</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3326,11 +3328,11 @@
         <v>80</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="O44" s="57"/>
     </row>
-    <row r="45" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3363,25 +3365,25 @@
         <v>98</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O45" s="58"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3410,12 +3412,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3430,6 +3426,12 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
@@ -3448,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3506,56 +3508,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="81">
         <v>43370.559027777781</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3565,10 +3567,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3578,53 +3580,53 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="87"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -3728,7 +3730,7 @@
         <v>116</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N26" s="30"/>
     </row>
@@ -3766,7 +3768,7 @@
         <v>119</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N27" s="30"/>
     </row>
@@ -3806,7 +3808,7 @@
         <v>119</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N28" s="57"/>
     </row>
@@ -3846,7 +3848,7 @@
         <v>121</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N29" s="57"/>
     </row>
@@ -3880,7 +3882,7 @@
         <v>122</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N30" s="59"/>
     </row>
@@ -3914,7 +3916,7 @@
         <v>119</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N31" s="30"/>
     </row>
@@ -3948,7 +3950,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N32" s="59"/>
     </row>
@@ -3982,7 +3984,7 @@
         <v>121</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N33" s="57"/>
     </row>
@@ -4016,7 +4018,7 @@
         <v>116</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N34" s="60"/>
     </row>
@@ -4024,6 +4026,388 @@
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="13">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="75"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="92">
+        <v>43370.433333333334</v>
+      </c>
+      <c r="C12" s="75"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="75"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="87"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>6</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>7</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>8</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>10</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4045,388 +4429,6 @@
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
-      <formula1>$F$1:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="68"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="84">
-        <v>43370.433333333334</v>
-      </c>
-      <c r="C12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="78"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="79"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>1</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>5</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>6</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>8</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>10</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D14:G15" name="Range1_2"/>
-  </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{BEEBD12A-5441-471D-8267-1BCDDFF1AB5F}">
       <formula1>$F$1:$F$4</formula1>
     </dataValidation>
@@ -4441,7 +4443,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4492,54 +4494,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="81">
         <v>43370.582638888889</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4549,10 +4551,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="65"/>
+      <c r="B15" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4562,55 +4564,55 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="76"/>
+      <c r="B21" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="73"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -4714,7 +4716,7 @@
         <v>150</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N26" s="30"/>
     </row>
@@ -4752,7 +4754,7 @@
         <v>151</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N27" s="30"/>
     </row>
@@ -4792,7 +4794,7 @@
         <v>153</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N28" s="30"/>
     </row>
@@ -4826,7 +4828,7 @@
         <v>150</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N29" s="30"/>
     </row>
@@ -4860,7 +4862,7 @@
         <v>154</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N30" s="30"/>
     </row>
@@ -4894,7 +4896,7 @@
         <v>156</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N31" s="30"/>
     </row>
@@ -4928,7 +4930,7 @@
         <v>157</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N32" s="30"/>
     </row>
@@ -4962,7 +4964,7 @@
         <v>157</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N33" s="30"/>
     </row>
@@ -4993,7 +4995,7 @@
         <v>159</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N34" s="30"/>
     </row>
@@ -5023,7 +5025,7 @@
         <v>161</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N35" s="61"/>
     </row>
@@ -5032,12 +5034,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5045,6 +5041,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{30ADB8DD-FFAF-4CC5-B24A-B9ED444FF813}">
@@ -5063,8 +5065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FB760-B5AE-4E8E-AA26-702C9D1B0054}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5090,14 +5092,14 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5108,56 +5110,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="92">
         <v>43370.444444444445</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="75"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="65"/>
+      <c r="B14" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -5167,8 +5169,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5178,53 +5180,51 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="65"/>
+      <c r="B18" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="79"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
     </row>
     <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
@@ -5236,7 +5236,7 @@
       <c r="C23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="64" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="62" t="s">
@@ -5251,7 +5251,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="89"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>3</v>
       </c>
@@ -5277,10 +5277,8 @@
       <c r="C26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="91"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
@@ -5302,12 +5300,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5315,6 +5307,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{29D31F47-099E-491B-91B5-AE5E236A45F5}">
@@ -5376,54 +5374,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="92">
         <v>43370.4375</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="75"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -5433,10 +5431,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="65"/>
+      <c r="B15" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5446,53 +5444,53 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="76"/>
+      <c r="B21" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
@@ -5594,7 +5592,7 @@
         <v>176</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J26" s="30"/>
     </row>
@@ -5616,7 +5614,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J27" s="30"/>
     </row>
@@ -5638,7 +5636,7 @@
         <v>179</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J28" s="33"/>
     </row>
@@ -5712,12 +5710,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5725,6 +5717,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67D9BA0C-C89F-491E-91DF-8E402F8116B0}">
@@ -5743,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459D5DF-FC12-4046-955C-5EF0A28D7646}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5768,14 +5766,14 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5786,54 +5784,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="94">
         <v>43370.416666666664</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -5843,10 +5841,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5866,61 +5864,59 @@
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="75"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="85"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{AC7F70D2-3882-4832-BA21-BFE3000F8A8F}">

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383FCE92-64FA-4F44-85B2-131D52491126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83CEE9-6054-460A-8130-CC33AB1B9727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,14 @@
     <sheet name="TC6" sheetId="19" r:id="rId7"/>
     <sheet name="TC7" sheetId="20" r:id="rId8"/>
     <sheet name="TC8" sheetId="22" r:id="rId9"/>
+    <sheet name="TC9" sheetId="23" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="250">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -929,27 +927,15 @@
     <t>&lt;link naar TC8&gt;</t>
   </si>
   <si>
-    <t>1. Rendezvous hotels geeft de melding: no matches found. Voor alle testruns is Swissotel Le Plaza Basel gebruikt ipv Rendezvouw Hotel.</t>
-  </si>
-  <si>
-    <t>2. Bij het tonen van de zoekresultaten lijkt de lay-out van de pagina niet correct.</t>
-  </si>
-  <si>
     <t>Hotel wordt getoond.</t>
   </si>
   <si>
-    <t>3. zoekfunctie naar hotels in een plaats geeft geen resultaten</t>
-  </si>
-  <si>
     <t>Melding "No matches found" wordt getoond</t>
   </si>
   <si>
     <t>Het hotel wordt als suggestie weergegeven</t>
   </si>
   <si>
-    <t>4. Een disabled hotel in de back-end kan wel gevonden worden in de front-end.</t>
-  </si>
-  <si>
     <t>Geen foutmelding wordt getoond, zoekresultaat verschijnt</t>
   </si>
   <si>
@@ -959,21 +945,6 @@
     <t>Kan niet uitgevoerd worden. Het is niet mogelijk om lege velden te hebben, deze worden automatisch gevuld.</t>
   </si>
   <si>
-    <t>6. Systeem accepteert een checkout datum die voor de checkin datum ligt</t>
-  </si>
-  <si>
-    <t>5. Systeem accepteert een ongeldige checkin datum</t>
-  </si>
-  <si>
-    <t>8. Bij een reisgezelschap van 0 volwassenen en 2 kinderen, wordt automatisch 1 volwasenne toegevoegd.</t>
-  </si>
-  <si>
-    <t>7. Bij een reisgezelschap van 0 personen, wordt dit automatisch verandert naar 1 volwassene</t>
-  </si>
-  <si>
-    <t>De functionaliteit heeft een aantal bevindingen die niet wenselijk zijn voor de deployment. Enkel het zoeken naar een hotel is getest, omdat het boeken van een hotel beperkt was door de lay-out pagina beperking van de zoekresultaten.</t>
-  </si>
-  <si>
     <t>Private</t>
   </si>
   <si>
@@ -996,9 +967,6 @@
   </si>
   <si>
     <t>Alle tourtypes die aanwezig zijn in de back-end zijn terug te vinden in de front-end. Niet alle opties die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
-  </si>
-  <si>
-    <t>Niet alle opties voor tourtypes die getoond worden in de front-end zijn terug te vinden in de back-end.</t>
   </si>
   <si>
     <t>website laadt</t>
@@ -1086,13 +1054,42 @@
     <t>x</t>
   </si>
   <si>
-    <t>kan niet testen, geen inlog backend</t>
-  </si>
-  <si>
     <t>De zoekresultaten worden getoond. Het aantal volwassenen wordt automatisch op 2 gezet.</t>
   </si>
   <si>
     <t>Geen foutmelding getoond, zoekresultaat verschijnt. Aantal volwassenen is op 2 persoon gezet.</t>
+  </si>
+  <si>
+    <t>Testcase 9</t>
+  </si>
+  <si>
+    <t>Als een klant
+ Wil ik een auto kunnen reserveren
+ Zodat ik hier op vakantie gebruik van kan maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor deze testcase gaan we een happy-flow scenario aflopen. </t>
+  </si>
+  <si>
+    <t>Als de pagina taal in het Engels is, verschijnt de foutmelding in het Frans</t>
+  </si>
+  <si>
+    <t>De happy flow resulteert in het uitkomen op de betaalmethode, dus geslaagd. Geen bijzonderheden in de happy flow geconstateerd.</t>
+  </si>
+  <si>
+    <t>&lt;link naar TC9&gt;</t>
+  </si>
+  <si>
+    <t>Verschillende defects gevonden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De functionaliteit heeft een aantal bevindingen die niet wenselijk zijn voor de deployment. </t>
+  </si>
+  <si>
+    <t>5 - 8 - 9 - 10 -11 - 12</t>
+  </si>
+  <si>
+    <t>9 - 10 - 16</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1137,14 +1134,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1370,9 +1359,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1396,9 +1385,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1423,10 +1409,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,7 +1424,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,10 +1439,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,7 +1458,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,17 +1467,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,10 +1514,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,47 +1527,62 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,31 +1591,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1623,6 +1609,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1673,41 +1666,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="TC1"/>
-      <sheetName val="TC2"/>
-      <sheetName val="TC3"/>
-      <sheetName val="TC4"/>
-      <sheetName val="TC5"/>
-      <sheetName val="TC6"/>
-      <sheetName val="TC7"/>
-      <sheetName val="TC8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Zie testcase onderaan de pagina.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2031,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2042,7 +2000,7 @@
     <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="32.6640625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="68" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -2057,119 +2015,137 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="63" t="str">
-        <f>[1]TC1!B20</f>
-        <v>Zie testcase onderaan de pagina.</v>
-      </c>
-      <c r="E3" s="67"/>
+      <c r="C3" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="67"/>
+      <c r="C7" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="67"/>
+      <c r="C8" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="67"/>
+      <c r="C9" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="66"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2182,9 +2158,205 @@
     <hyperlink ref="A8" location="'TC6'!A1" display="&lt;link naar TC6&gt;" xr:uid="{EC9A7B11-1419-4DE7-BBFE-293040BAEFA3}"/>
     <hyperlink ref="A9" location="'TC7'!A1" display="&lt;link naar TC7&gt;" xr:uid="{AB56585C-74B0-4169-A7EC-43EB7A0B9916}"/>
     <hyperlink ref="A10" location="'TC8'!A1" display="&lt;link naar TC8&gt;" xr:uid="{56414EB3-BFF5-427A-AFAC-EE1C4106025B}"/>
+    <hyperlink ref="A11" location="'TC9'!A1" display="&lt;link naar TC9&gt;" xr:uid="{48FB46CC-AF70-4BD3-B582-54B4A5C26D8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C043BC-0CBE-44B4-A4FA-E4957EF29598}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="82"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="12">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C2CE03C-0128-4C84-A2F4-FE0A65E052F0}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{7106444C-030B-42E4-951A-630CB2EBD716}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2223,10 +2395,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>3</v>
       </c>
     </row>
@@ -2239,283 +2411,283 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="78">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="79"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="75"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="73"/>
+      <c r="B21" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>2</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="53"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>3</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
         <v>2</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>4</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14">
+      <c r="D28" s="9"/>
+      <c r="E28" s="13">
         <v>3</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>6</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="21"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
@@ -2525,12 +2697,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2538,6 +2704,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
@@ -2554,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B54CD-E171-41D3-80E3-3CEE2B1A23A3}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2619,819 +2791,760 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="87">
         <v>43370.390277777777</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="86"/>
+    </row>
+    <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="82"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="37">
+        <v>1</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="87"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="88" t="s">
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="39">
+        <v>2</v>
+      </c>
+      <c r="L27" s="39">
+        <v>2</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" s="29"/>
+      <c r="P27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="39">
+        <v>1</v>
+      </c>
+      <c r="L28" s="39">
+        <v>0</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="89"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="88" t="s">
+      <c r="O28" s="29"/>
+    </row>
+    <row r="29" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>5</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="39">
+        <v>1</v>
+      </c>
+      <c r="L29" s="39">
+        <v>0</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" s="56"/>
+    </row>
+    <row r="30" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="39">
+        <v>1</v>
+      </c>
+      <c r="L30" s="39">
+        <v>0</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="89"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="89"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="89"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="89"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="89"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="89"/>
-    </row>
-    <row r="28" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="73"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="26"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="O30" s="56"/>
+    </row>
+    <row r="31" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="9">
+        <v>6</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" s="39">
         <v>1</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="L31" s="39">
+        <v>0</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="56"/>
+    </row>
+    <row r="32" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O32" s="16" t="s">
+      <c r="E32" s="9">
+        <v>7</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="39">
+        <v>1</v>
+      </c>
+      <c r="L32" s="39">
+        <v>0</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="56"/>
+    </row>
+    <row r="33" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="9">
+        <v>8</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="39">
+        <v>0</v>
+      </c>
+      <c r="L33" s="39">
+        <v>0</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" s="56"/>
+    </row>
+    <row r="34" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="F34" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="39">
+        <v>1</v>
+      </c>
+      <c r="L34" s="39">
         <v>2</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="24">
+      <c r="M34" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" s="29"/>
+    </row>
+    <row r="35" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="9">
+        <v>10</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="39">
+        <v>2</v>
+      </c>
+      <c r="L35" s="39">
+        <v>0</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="O35" s="29"/>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="9">
+        <v>11</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="39">
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
         <v>1</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="M36" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O36" s="29"/>
+    </row>
+    <row r="37" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="9">
+        <v>12</v>
+      </c>
+      <c r="F37" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G37" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H37" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I37" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J37" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="38">
-        <v>1</v>
-      </c>
-      <c r="L33" s="38">
+      <c r="K37" s="39">
         <v>0</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="L37" s="39">
+        <v>2</v>
+      </c>
+      <c r="M37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="N33" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="O33" s="53"/>
-    </row>
-    <row r="34" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="10">
+      <c r="N37" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" s="56"/>
+    </row>
+    <row r="38" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="13">
+        <v>13</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="41">
         <v>2</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="40">
-        <v>2</v>
-      </c>
-      <c r="L34" s="40">
-        <v>2</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="O34" s="30"/>
-      <c r="P34" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>4</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="10">
-        <v>3</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="40">
-        <v>1</v>
-      </c>
-      <c r="L35" s="40">
+      <c r="L38" s="41">
         <v>0</v>
       </c>
-      <c r="M35" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O35" s="30"/>
-    </row>
-    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>5</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="10">
-        <v>4</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="40">
-        <v>1</v>
-      </c>
-      <c r="L36" s="40">
-        <v>0</v>
-      </c>
-      <c r="M36" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="N36" s="11" t="s">
+      <c r="M38" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="O36" s="57"/>
-      <c r="P36" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="10">
-        <v>5</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="40">
-        <v>1</v>
-      </c>
-      <c r="L37" s="40">
-        <v>0</v>
-      </c>
-      <c r="M37" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="O37" s="57"/>
-    </row>
-    <row r="38" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="10">
-        <v>6</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="40">
-        <v>1</v>
-      </c>
-      <c r="L38" s="40">
-        <v>0</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>204</v>
-      </c>
       <c r="O38" s="57"/>
     </row>
-    <row r="39" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="10">
-        <v>7</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="40">
-        <v>1</v>
-      </c>
-      <c r="L39" s="40">
-        <v>0</v>
-      </c>
-      <c r="M39" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="57"/>
-    </row>
-    <row r="40" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="10">
-        <v>8</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="40">
-        <v>0</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="O40" s="57"/>
-    </row>
-    <row r="41" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="10">
-        <v>9</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="40">
-        <v>1</v>
-      </c>
-      <c r="L41" s="40">
-        <v>2</v>
-      </c>
-      <c r="M41" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O41" s="30"/>
-    </row>
-    <row r="42" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="10">
-        <v>10</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42" s="40">
-        <v>2</v>
-      </c>
-      <c r="L42" s="40">
-        <v>0</v>
-      </c>
-      <c r="M42" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="O42" s="30"/>
-    </row>
-    <row r="43" spans="1:16" ht="45" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="10">
-        <v>11</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K43" s="40">
-        <v>0</v>
-      </c>
-      <c r="L43" s="40">
-        <v>1</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O43" s="30"/>
-    </row>
-    <row r="44" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="10">
-        <v>12</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="40">
-        <v>0</v>
-      </c>
-      <c r="L44" s="40">
-        <v>2</v>
-      </c>
-      <c r="M44" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O44" s="57"/>
-    </row>
-    <row r="45" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="14">
-        <v>13</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="42">
-        <v>2</v>
-      </c>
-      <c r="L45" s="42">
-        <v>0</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="O45" s="58"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="20">
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
@@ -3450,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A633D-6CC0-49F3-94BF-53EB52B92CAE}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -3508,524 +3621,904 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="78">
         <v>43370.559027777781</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>5</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N30" s="58"/>
+    </row>
+    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="9">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="9">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N32" s="58"/>
+    </row>
+    <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="9">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="13">
+        <v>9</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="43">
+        <v>2</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="59"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="89">
+        <v>43370.433333333334</v>
+      </c>
+      <c r="C12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="26"/>
-    </row>
-    <row r="25" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="D24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N25" s="16" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>8</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="N27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="10">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="N28" s="57"/>
-    </row>
-    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>5</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="10">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="N29" s="57"/>
-    </row>
-    <row r="30" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="10">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="N30" s="59"/>
-    </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="10">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L31" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="N31" s="30"/>
-    </row>
-    <row r="32" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="10">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="N32" s="59"/>
-    </row>
-    <row r="33" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="10">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L33" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="N33" s="57"/>
-    </row>
-    <row r="34" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="14">
-        <v>9</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="44">
-        <v>2</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="N34" s="60"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>10</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4047,388 +4540,6 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
-      <formula1>$F$1:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{58496367-1F49-4E52-808E-C7C20D703DB6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1C93F-1AD4-4CB6-934A-0B3A6BE1A849}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-    </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="80"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="75"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="92">
-        <v>43370.433333333334</v>
-      </c>
-      <c r="C12" s="75"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="75"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="87"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>1</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>5</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>6</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>8</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>10</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D14:G15" name="Range1_2"/>
-  </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{BEEBD12A-5441-471D-8267-1BCDDFF1AB5F}">
       <formula1>$F$1:$F$4</formula1>
     </dataValidation>
@@ -4442,7 +4553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D66423-0735-4DFF-B4DB-B1C8C490DF17}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -4494,204 +4605,204 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="78">
         <v>43370.582638888889</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="73"/>
+      <c r="B21" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="82"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>2</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="10">
+      <c r="D26" s="35"/>
+      <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -4700,7 +4811,7 @@
       <c r="G26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -4712,24 +4823,24 @@
       <c r="K26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="N26" s="30"/>
+      <c r="M26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="10">
+      <c r="C27" s="10"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="9">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4738,7 +4849,7 @@
       <c r="G27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -4750,26 +4861,26 @@
       <c r="K27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="N27" s="30"/>
+      <c r="M27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>4</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="10">
+      <c r="D28" s="36"/>
+      <c r="E28" s="9">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4778,7 +4889,7 @@
       <c r="G28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -4790,20 +4901,20 @@
       <c r="K28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L28" s="52" t="s">
+      <c r="L28" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="N28" s="30"/>
+      <c r="M28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="10">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="9">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4812,7 +4923,7 @@
       <c r="G29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>152</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -4824,20 +4935,20 @@
       <c r="K29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="N29" s="30"/>
+      <c r="M29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="10">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="9">
         <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4846,7 +4957,7 @@
       <c r="G30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -4858,20 +4969,20 @@
       <c r="K30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="N30" s="30"/>
+      <c r="M30" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="10">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="9">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4880,7 +4991,7 @@
       <c r="G31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -4892,20 +5003,20 @@
       <c r="K31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N31" s="30"/>
+      <c r="M31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="10">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="9">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4914,7 +5025,7 @@
       <c r="G32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -4926,20 +5037,20 @@
       <c r="K32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="N32" s="30"/>
+      <c r="M32" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="10">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="9">
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4948,7 +5059,7 @@
       <c r="G33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="48" t="s">
         <v>162</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -4960,17 +5071,17 @@
       <c r="K33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="30"/>
+      <c r="M33" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D34" s="37"/>
-      <c r="E34" s="10">
+      <c r="D34" s="36"/>
+      <c r="E34" s="9">
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4979,7 +5090,7 @@
       <c r="G34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>97</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4991,49 +5102,55 @@
       <c r="K34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="M34" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="N34" s="30"/>
+      <c r="M34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>10</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="L35" s="51" t="s">
+      <c r="L35" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="N35" s="61"/>
+      <c r="M35" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="N35" s="60"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5041,12 +5158,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{30ADB8DD-FFAF-4CC5-B24A-B9ED444FF813}">
@@ -5065,7 +5176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FB760-B5AE-4E8E-AA26-702C9D1B0054}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5110,114 +5221,114 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <v>43370.444444444445</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -5227,79 +5338,85 @@
       <c r="C21" s="91"/>
     </row>
     <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="53"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>2</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>3</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="36"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5307,12 +5424,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{29D31F47-099E-491B-91B5-AE5E236A45F5}">
@@ -5374,186 +5485,186 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="89">
         <v>43370.4375</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="73"/>
+      <c r="B21" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="82"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>2</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="10">
+      <c r="D25" s="35"/>
+      <c r="E25" s="9">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -5562,24 +5673,24 @@
       <c r="G25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="53"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="10">
+      <c r="D26" s="35"/>
+      <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5588,20 +5699,20 @@
       <c r="G26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J26" s="30"/>
+      <c r="I26" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="10">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="9">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -5610,20 +5721,20 @@
       <c r="G27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="30"/>
+      <c r="I27" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="10">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="9">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -5632,84 +5743,90 @@
       <c r="G28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" s="33"/>
+      <c r="I28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="37"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="E34" s="11"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5717,12 +5834,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67D9BA0C-C89F-491E-91DF-8E402F8116B0}">
@@ -5741,7 +5852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6459D5DF-FC12-4046-955C-5EF0A28D7646}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
@@ -5784,71 +5895,71 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="93">
         <v>43370.416666666664</v>
       </c>
-      <c r="C12" s="95"/>
+      <c r="C12" s="94"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -5857,41 +5968,43 @@
       <c r="B16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="61"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="86"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -5905,18 +6018,18 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{AC7F70D2-3882-4832-BA21-BFE3000F8A8F}">

--- a/Sessie sheet (testcases) - Front-end.xlsx
+++ b/Sessie sheet (testcases) - Front-end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83CEE9-6054-460A-8130-CC33AB1B9727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635568B5-09BB-4100-B1BE-296A92D21B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1543,11 +1543,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1561,19 +1577,13 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,37 +1595,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2065,7 +2065,7 @@
       <c r="D5" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="74" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2080,7 +2080,9 @@
         <v>231</v>
       </c>
       <c r="D6" s="62"/>
-      <c r="E6" s="66"/>
+      <c r="E6" s="66">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2145,7 +2147,9 @@
         <v>231</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="66"/>
+      <c r="E11" s="66">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2213,52 +2217,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2268,8 +2272,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2289,56 +2293,51 @@
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2346,6 +2345,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C2CE03C-0128-4C84-A2F4-FE0A65E052F0}">
@@ -2411,56 +2415,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="84">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2470,8 +2474,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2481,59 +2485,59 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="80"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
@@ -2697,6 +2701,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2704,12 +2714,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{A0D75A70-63F2-4ABB-881B-C35F2C3A24A7}">
@@ -2791,56 +2795,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>43370.390277777777</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="87"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2850,8 +2854,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2861,55 +2865,55 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -3532,12 +3536,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3545,6 +3543,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{B1942ADD-0981-4B08-9A53-0BFFD8BAE153}">
@@ -3621,56 +3625,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="84">
         <v>43370.559027777781</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -3680,10 +3684,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3693,53 +3697,53 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -4145,12 +4149,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4158,6 +4156,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B18:B19" xr:uid="{EE89E9F9-9BF4-4218-AE5E-3DF9B7CE52B9}">
@@ -4227,56 +4231,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="93">
         <v>43370.433333333334</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4286,10 +4290,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4299,53 +4303,53 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -4525,6 +4529,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4532,12 +4542,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{BEEBD12A-5441-471D-8267-1BCDDFF1AB5F}">
@@ -4605,54 +4609,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="84">
         <v>43370.582638888889</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="80"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4662,10 +4666,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4675,55 +4679,55 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="78"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -5145,12 +5149,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5158,6 +5156,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{30ADB8DD-FFAF-4CC5-B24A-B9ED444FF813}">
@@ -5221,56 +5225,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="93">
         <v>43370.444444444445</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5280,8 +5284,8 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5291,51 +5295,51 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -5411,12 +5415,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5424,6 +5422,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{29D31F47-099E-491B-91B5-AE5E236A45F5}">
@@ -5485,54 +5489,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="93">
         <v>43370.4375</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5542,10 +5546,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5555,53 +5559,53 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -5821,12 +5825,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5834,6 +5832,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67D9BA0C-C89F-491E-91DF-8E402F8116B0}">
@@ -5895,54 +5899,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="95">
         <v>43370.416666666664</v>
       </c>
-      <c r="C12" s="94"/>
+      <c r="C12" s="96"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5952,10 +5956,10 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5975,61 +5979,61 @@
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{AC7F70D2-3882-4832-BA21-BFE3000F8A8F}">
